--- a/安排190327.xlsx
+++ b/安排190327.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADCFB10-9779-4FEA-83D7-8D279F895183}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026383D5-700A-49AF-9559-4FD2F58EAD16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="49">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>交互优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>容错措施优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -208,6 +204,18 @@
   </si>
   <si>
     <t>2. 文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字提示美化 &amp; 交互优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看谁排的快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,9 +466,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,6 +499,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -781,53 +792,57 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>45</v>
+      <c r="B4" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -837,9 +852,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="17" t="s">
-        <v>46</v>
+      <c r="A5" s="17"/>
+      <c r="B5" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -849,14 +864,14 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -867,8 +882,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -879,8 +894,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -891,8 +906,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -903,8 +918,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -915,8 +930,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -927,8 +942,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -939,8 +954,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -951,8 +966,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -963,8 +978,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -975,8 +990,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="14"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -991,7 +1006,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1"/>
@@ -999,11 +1014,11 @@
         <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="1"/>
@@ -1016,7 +1031,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -1027,8 +1042,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>37</v>
+      <c r="A22" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -1039,8 +1054,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>38</v>
+      <c r="A23" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -1051,18 +1066,18 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="14"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/安排190327.xlsx
+++ b/安排190327.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026383D5-700A-49AF-9559-4FD2F58EAD16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58815BFF-F6E4-4F15-A4F5-BBC25D8495D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -216,6 +216,22 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析用基本类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeData类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张承扬</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +326,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -328,7 +383,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -340,7 +395,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -350,7 +405,7 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -358,7 +413,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -367,7 +422,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -382,7 +437,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -391,54 +446,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -462,48 +478,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,7 +808,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -803,287 +819,300 @@
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16" t="s">
-        <v>28</v>
+      <c r="A11" s="12"/>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16" t="s">
-        <v>29</v>
+      <c r="A12" s="12"/>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16" t="s">
-        <v>30</v>
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16" t="s">
-        <v>31</v>
+      <c r="A14" s="12"/>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
+      <c r="D14" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16" t="s">
-        <v>32</v>
+      <c r="A15" s="12"/>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="16" t="s">
-        <v>33</v>
+      <c r="A16" s="12"/>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="D17" s="15"/>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="13"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
+      <c r="A20" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
+      <c r="A21" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
+      <c r="A22" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>37</v>
+      <c r="A23" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D26" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A8:A17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/安排190327.xlsx
+++ b/安排190327.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58815BFF-F6E4-4F15-A4F5-BBC25D8495D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3640BA89-A7D0-49CD-A422-8FB72D0EA1F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="54">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>报表数据整理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>文字提示美化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,6 +228,14 @@
   </si>
   <si>
     <t>张承扬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表数据外部读取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表绘制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -505,9 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -520,6 +521,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1BC70-5743-480A-95CE-785077CB07EB}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -821,10 +825,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>16</v>
@@ -835,16 +839,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,11 +858,11 @@
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -868,9 +872,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -880,25 +884,25 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -912,7 +916,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
@@ -924,7 +928,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -936,7 +940,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
@@ -948,7 +952,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -960,7 +964,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
@@ -972,7 +976,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
@@ -984,7 +988,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
@@ -996,7 +1000,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1008,7 +1012,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1020,8 +1024,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -1036,56 +1040,56 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>34</v>
+      <c r="A20" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>35</v>
+      <c r="A21" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>46</v>
+      <c r="A22" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>36</v>
+      <c r="A23" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>37</v>
+      <c r="A24" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -1096,18 +1100,30 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
+      <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/安排190327.xlsx
+++ b/安排190327.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3640BA89-A7D0-49CD-A422-8FB72D0EA1F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E72A04-DB36-4B96-B849-899ACBD9132C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="55">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2. 文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>文字提示美化 &amp; 交互优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -236,6 +232,14 @@
   </si>
   <si>
     <t>图表绘制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 文件（定）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 文件（动）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -457,6 +461,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -474,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,6 +565,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1BC70-5743-480A-95CE-785077CB07EB}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -842,10 +895,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>42</v>
@@ -858,7 +911,7 @@
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -872,9 +925,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -884,56 +937,56 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>19</v>
@@ -942,19 +995,19 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -966,43 +1019,43 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
@@ -1014,34 +1067,34 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="D18" s="13"/>
-    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1052,83 +1105,95 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>45</v>
+      <c r="A23" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>35</v>
+      <c r="A24" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>36</v>
+      <c r="A25" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/安排190327.xlsx
+++ b/安排190327.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E72A04-DB36-4B96-B849-899ACBD9132C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180AAF6-29BF-47A8-84A2-35F45CE18B2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -334,13 +334,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -353,7 +353,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -363,17 +363,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -391,7 +391,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -403,7 +403,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
@@ -413,7 +413,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -421,7 +421,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -430,56 +430,11 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -490,7 +445,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -498,6 +453,51 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -529,6 +529,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,35 +551,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1BC70-5743-480A-95CE-785077CB07EB}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -876,22 +876,22 @@
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -900,18 +900,18 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -920,40 +920,40 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -962,237 +962,242 @@
       <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>19</v>
+      <c r="D14" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>18</v>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>23</v>
+      <c r="D16" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="D19" s="13"/>
-    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="16"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>51</v>
+      <c r="A22" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>34</v>
+      <c r="A23" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>20</v>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>44</v>
+      <c r="A24" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>35</v>
+      <c r="A25" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>36</v>
+      <c r="A26" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="17"/>
-    </row>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A10:A19"/>
     <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
